--- a/projects_stat/Книга1.xlsx
+++ b/projects_stat/Книга1.xlsx
@@ -41,12 +41,6 @@
     <t>Иванов Р.А.</t>
   </si>
   <si>
-    <t>Иванов Р.А. план</t>
-  </si>
-  <si>
-    <t>Иванов Р.А. факт</t>
-  </si>
-  <si>
     <t>Проект 1</t>
   </si>
   <si>
@@ -56,16 +50,22 @@
     <t>Сидоров М.В.</t>
   </si>
   <si>
-    <t>Петров И.И. план</t>
-  </si>
-  <si>
-    <t>Петров И.И. факт</t>
-  </si>
-  <si>
-    <t>Сидоров М.В. план</t>
-  </si>
-  <si>
-    <t>Сидоров М.В. факт</t>
+    <t>Иванов Р.А. план.</t>
+  </si>
+  <si>
+    <t>Иванов Р.А. факт.</t>
+  </si>
+  <si>
+    <t>Петров И.И. план.</t>
+  </si>
+  <si>
+    <t>Петров И.И. факт.</t>
+  </si>
+  <si>
+    <t>Сидоров М.В. план.</t>
+  </si>
+  <si>
+    <t>Сидоров М.В. факт.</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -469,10 +469,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>41562</v>

--- a/projects_stat/Книга1.xlsx
+++ b/projects_stat/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Success_analizer\projects_stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mv.mishuta\PycharmProjects\Success_analizer\projects_stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Название проекта</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Сидоров М.В. факт.</t>
+  </si>
+  <si>
+    <t>Проект 3</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +499,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44531</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41564</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
